--- a/Excel/WeaponConfig.xlsx
+++ b/Excel/WeaponConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845E3F7F-2620-4944-BB97-A2F864F3EE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5F03E1-65D2-4C8D-A33C-C498D1653B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>技能的序号</t>
   </si>
@@ -71,6 +71,174 @@
   </si>
   <si>
     <t>IconResName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3s_accessory_02</t>
+  </si>
+  <si>
+    <t>3s_accessory_03</t>
+  </si>
+  <si>
+    <t>3s_equip_01</t>
+  </si>
+  <si>
+    <t>3s_equip_02</t>
+  </si>
+  <si>
+    <t>3s_equip_03</t>
+  </si>
+  <si>
+    <t>3s_ring_01</t>
+  </si>
+  <si>
+    <t>3s_ring_02</t>
+  </si>
+  <si>
+    <t>3s_ring_03</t>
+  </si>
+  <si>
+    <t>3s_ring_04</t>
+  </si>
+  <si>
+    <t>3s_weapon_01</t>
+  </si>
+  <si>
+    <t>3s_weapon_02</t>
+  </si>
+  <si>
+    <t>4s_accessory_01</t>
+  </si>
+  <si>
+    <t>4s_accessory_02</t>
+  </si>
+  <si>
+    <t>4s_accessory_03</t>
+  </si>
+  <si>
+    <t>4s_accessory_04</t>
+  </si>
+  <si>
+    <t>4s_equip_01</t>
+  </si>
+  <si>
+    <t>4s_equip_02</t>
+  </si>
+  <si>
+    <t>4s_equip_03</t>
+  </si>
+  <si>
+    <t>4s_equip_04</t>
+  </si>
+  <si>
+    <t>4s_equip_05</t>
+  </si>
+  <si>
+    <t>4s_equip_06</t>
+  </si>
+  <si>
+    <t>货币类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoneyType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#货币类型 1金币2钻石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备2</t>
+  </si>
+  <si>
+    <t>装备3</t>
+  </si>
+  <si>
+    <t>装备4</t>
+  </si>
+  <si>
+    <t>装备5</t>
+  </si>
+  <si>
+    <t>装备6</t>
+  </si>
+  <si>
+    <t>装备7</t>
+  </si>
+  <si>
+    <t>装备8</t>
+  </si>
+  <si>
+    <t>装备9</t>
+  </si>
+  <si>
+    <t>装备10</t>
+  </si>
+  <si>
+    <t>装备11</t>
+  </si>
+  <si>
+    <t>装备12</t>
+  </si>
+  <si>
+    <t>装备13</t>
+  </si>
+  <si>
+    <t>装备14</t>
+  </si>
+  <si>
+    <t>装备15</t>
+  </si>
+  <si>
+    <t>装备16</t>
+  </si>
+  <si>
+    <t>装备17</t>
+  </si>
+  <si>
+    <t>装备18</t>
+  </si>
+  <si>
+    <t>装备19</t>
+  </si>
+  <si>
+    <t>装备20</t>
+  </si>
+  <si>
+    <t>装备21</t>
+  </si>
+  <si>
+    <t>装备22</t>
+  </si>
+  <si>
+    <t>装备23</t>
+  </si>
+  <si>
+    <t>装备24</t>
+  </si>
+  <si>
+    <t>装备类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#装备类型1武器2护甲3戒指4饰品</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +271,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -135,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -150,6 +326,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -454,15 +631,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:N33"/>
+  <dimension ref="A3:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="48.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.6328125" style="3" customWidth="1"/>
     <col min="5" max="5" width="20.1796875" style="3" customWidth="1"/>
@@ -471,7 +648,7 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -484,14 +661,20 @@
       <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="3:14" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
@@ -504,14 +687,20 @@
       <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="3:14" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
@@ -522,16 +711,22 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C6">
         <v>1000001</v>
       </c>
@@ -542,16 +737,25 @@
         <v>6</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6" s="5"/>
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <v>1001</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="3:14" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C7">
         <v>1000002</v>
       </c>
@@ -559,13 +763,25 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:14" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="G7">
+        <v>1001</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="C8">
         <v>1000003</v>
       </c>
@@ -573,19 +789,25 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
+        <v>200</v>
+      </c>
+      <c r="G8">
+        <v>1001</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4</v>
+      </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
     </row>
-    <row r="9" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C9">
         <v>1000004</v>
       </c>
@@ -593,19 +815,25 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
+        <v>200</v>
+      </c>
+      <c r="G9">
+        <v>1001</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2</v>
+      </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C10">
         <v>1000005</v>
       </c>
@@ -613,19 +841,25 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
+        <v>200</v>
+      </c>
+      <c r="G10">
+        <v>1001</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2</v>
+      </c>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
     </row>
-    <row r="11" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>1000006</v>
       </c>
@@ -633,20 +867,26 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
+        <v>200</v>
+      </c>
+      <c r="G11">
+        <v>1001</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="N11"/>
     </row>
-    <row r="12" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>1000007</v>
       </c>
@@ -654,19 +894,25 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
+        <v>200</v>
+      </c>
+      <c r="G12">
+        <v>1001</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="5">
+        <v>4</v>
+      </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C13">
         <v>1000008</v>
       </c>
@@ -674,15 +920,22 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="G13">
+        <v>1001</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C14">
         <v>1000009</v>
       </c>
@@ -690,15 +943,22 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="G14">
+        <v>1001</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C15">
         <v>1000010</v>
       </c>
@@ -706,15 +966,22 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="G15">
+        <v>1001</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C16">
         <v>1000011</v>
       </c>
@@ -722,15 +989,22 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F16">
+        <v>200</v>
+      </c>
+      <c r="G16">
+        <v>1001</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="5">
         <v>1</v>
       </c>
-      <c r="G16"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="3:8" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="3:9" ht="15" x14ac:dyDescent="0.35">
       <c r="C17">
         <v>1000012</v>
       </c>
@@ -738,15 +1012,22 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F17">
+        <v>200</v>
+      </c>
+      <c r="G17">
+        <v>1001</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="5">
         <v>1</v>
       </c>
-      <c r="G17"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="3:8" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="3:9" ht="15" x14ac:dyDescent="0.35">
       <c r="C18">
         <v>1000013</v>
       </c>
@@ -754,15 +1035,22 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F18">
+        <v>200</v>
+      </c>
+      <c r="G18">
+        <v>1001</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="5">
         <v>1</v>
       </c>
-      <c r="G18"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="3:8" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="3:9" ht="15" x14ac:dyDescent="0.35">
       <c r="C19">
         <v>1000014</v>
       </c>
@@ -770,15 +1058,22 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="3:8" ht="15" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="G19">
+        <v>1002</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="15" x14ac:dyDescent="0.35">
       <c r="C20">
         <v>1000015</v>
       </c>
@@ -786,15 +1081,22 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="3:8" ht="15" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="G20">
+        <v>1002</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="15" x14ac:dyDescent="0.35">
       <c r="C21">
         <v>1000016</v>
       </c>
@@ -802,15 +1104,22 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="3:8" ht="15" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="G21">
+        <v>1002</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="15" x14ac:dyDescent="0.35">
       <c r="C22">
         <v>1000017</v>
       </c>
@@ -818,15 +1127,22 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="3:8" ht="15" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="G22">
+        <v>1002</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="15" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>1000018</v>
       </c>
@@ -834,15 +1150,22 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="3:8" ht="15" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="G23">
+        <v>1002</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="15" x14ac:dyDescent="0.35">
       <c r="C24">
         <v>1000019</v>
       </c>
@@ -850,15 +1173,22 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24"/>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="3:8" ht="15" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="G24">
+        <v>1002</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="15" x14ac:dyDescent="0.35">
       <c r="C25">
         <v>1000020</v>
       </c>
@@ -866,15 +1196,22 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="3:8" ht="15" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="G25">
+        <v>1002</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="15" x14ac:dyDescent="0.35">
       <c r="C26">
         <v>1000021</v>
       </c>
@@ -882,15 +1219,22 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="3:8" ht="15" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="G26">
+        <v>1002</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="15" x14ac:dyDescent="0.35">
       <c r="C27">
         <v>1000022</v>
       </c>
@@ -898,15 +1242,22 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27"/>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="3:8" ht="15" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="G27">
+        <v>1002</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="15" x14ac:dyDescent="0.35">
       <c r="C28">
         <v>1000023</v>
       </c>
@@ -914,15 +1265,22 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="3:8" ht="15" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="G28">
+        <v>1002</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="15" x14ac:dyDescent="0.35">
       <c r="C29">
         <v>1000024</v>
       </c>
@@ -930,26 +1288,33 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29"/>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="G29">
+        <v>1002</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
